--- a/recursos/inferencia/datos/AlumnosInferencia.xlsx
+++ b/recursos/inferencia/datos/AlumnosInferencia.xlsx
@@ -16,7 +16,7 @@
     <t>Edad</t>
   </si>
   <si>
-    <t>Género</t>
+    <t>Genero</t>
   </si>
   <si>
     <t>Carrera</t>
@@ -25,7 +25,7 @@
     <t>Promedio</t>
   </si>
   <si>
-    <t>Foráneo</t>
+    <t>Foraneo</t>
   </si>
   <si>
     <t>Turno</t>
